--- a/data/trans_orig/IP29_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP29_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AA3B6D2-0C1B-439F-8EF7-208DD6EE710F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7416FC22-DEB8-42B1-B0A7-4E333E6B6999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EA1AD1C-1FF2-4FA3-84F4-E6C69461018B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5B813DBA-E0DB-48C7-BEB5-C563A8D8BC6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="281">
   <si>
     <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2007 (Tasa respuesta: 96,15%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,346 +67,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
   </si>
   <si>
     <t>68,66%</t>
   </si>
   <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>28,02%</t>
   </si>
   <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>71,98%</t>
   </si>
   <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
   <si>
     <t>32,5%</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>67,5%</t>
   </si>
   <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
   </si>
   <si>
     <t>31,42%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -415,619 +358,529 @@
     <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2012 (Tasa respuesta: 97,57%)</t>
   </si>
   <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2016 (Tasa respuesta: 97,51%)</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
   </si>
   <si>
     <t>77,16%</t>
   </si>
   <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>Menores con lactancia materna exclusiva hasta los 6 primeros meses de vida o más en 2016 (Tasa respuesta: 97,51%)</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
     <t>71,79%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>71,81%</t>
   </si>
   <si>
-    <t>75,94%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
   </si>
   <si>
     <t>25,72%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>24,34%</t>
   </si>
   <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>74,28%</t>
   </si>
   <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
   </si>
   <si>
     <t>30,36%</t>
   </si>
   <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>27,63%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
   </si>
   <si>
     <t>69,64%</t>
   </si>
   <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
   </si>
   <si>
     <t>70,25%</t>
   </si>
   <si>
-    <t>72,37%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1292,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413E5B1C-6D60-4644-AD7D-E548EB2AB753}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C62098-4A43-4409-B9E8-A28FA82ED533}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1557,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>9099</v>
+        <v>35963</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1572,10 +1425,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7">
-        <v>4534</v>
+        <v>37365</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1587,10 +1440,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="N4" s="7">
-        <v>13632</v>
+        <v>73328</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1608,10 +1461,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="D5" s="7">
-        <v>13904</v>
+        <v>96640</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1623,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>17476</v>
+        <v>108330</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1638,10 +1491,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="N5" s="7">
-        <v>31380</v>
+        <v>204970</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1659,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D6" s="7">
-        <v>23003</v>
+        <v>132603</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1527,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c r="I6" s="7">
-        <v>22010</v>
+        <v>145695</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1542,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>58</v>
+        <v>410</v>
       </c>
       <c r="N6" s="7">
-        <v>45012</v>
+        <v>278298</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1712,10 +1565,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="D7" s="7">
-        <v>28267</v>
+        <v>64911</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1727,10 +1580,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>31429</v>
+        <v>59672</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1742,10 +1595,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="N7" s="7">
-        <v>59696</v>
+        <v>124583</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1763,10 +1616,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="D8" s="7">
-        <v>94425</v>
+        <v>123869</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1778,10 +1631,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="I8" s="7">
-        <v>79165</v>
+        <v>149041</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1793,10 +1646,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="N8" s="7">
-        <v>173590</v>
+        <v>272910</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1814,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>122692</v>
+        <v>188780</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1829,10 +1682,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>166</v>
+        <v>317</v>
       </c>
       <c r="I9" s="7">
-        <v>110594</v>
+        <v>208713</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1844,10 +1697,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>352</v>
+        <v>619</v>
       </c>
       <c r="N9" s="7">
-        <v>233286</v>
+        <v>397493</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1867,10 +1720,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7">
-        <v>59672</v>
+        <v>40681</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1882,10 +1735,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>64911</v>
+        <v>37532</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1897,10 +1750,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="N10" s="7">
-        <v>124583</v>
+        <v>78213</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1918,10 +1771,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="D11" s="7">
-        <v>149041</v>
+        <v>94602</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1933,10 +1786,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="I11" s="7">
-        <v>123869</v>
+        <v>106322</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1948,10 +1801,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>425</v>
+        <v>323</v>
       </c>
       <c r="N11" s="7">
-        <v>272910</v>
+        <v>200924</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1969,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>208713</v>
+        <v>135283</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1837,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>302</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>188780</v>
+        <v>143854</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1852,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>619</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>397493</v>
+        <v>279137</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1875,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7">
-        <v>37532</v>
+        <v>63545</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2037,10 +1890,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="I13" s="7">
-        <v>40681</v>
+        <v>64265</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2052,10 +1905,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="N13" s="7">
-        <v>78213</v>
+        <v>127810</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2073,10 +1926,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D14" s="7">
-        <v>106322</v>
+        <v>132553</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2088,10 +1941,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="I14" s="7">
-        <v>94602</v>
+        <v>132910</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2103,10 +1956,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="N14" s="7">
-        <v>200924</v>
+        <v>265464</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2124,10 +1977,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>143854</v>
+        <v>196098</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1992,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>135283</v>
+        <v>197175</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2154,10 +2007,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>448</v>
+        <v>546</v>
       </c>
       <c r="N15" s="7">
-        <v>279137</v>
+        <v>393274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2171,55 +2024,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>96</v>
+        <v>306</v>
       </c>
       <c r="D16" s="7">
-        <v>64265</v>
+        <v>205100</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>300</v>
+      </c>
+      <c r="I16" s="7">
+        <v>198834</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>84</v>
-      </c>
-      <c r="I16" s="7">
-        <v>63545</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>606</v>
+      </c>
+      <c r="N16" s="7">
+        <v>403934</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>180</v>
-      </c>
-      <c r="N16" s="7">
-        <v>127810</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,49 +2081,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>194</v>
+        <v>671</v>
       </c>
       <c r="D17" s="7">
-        <v>132910</v>
+        <v>447665</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>746</v>
+      </c>
+      <c r="I17" s="7">
+        <v>496603</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>172</v>
-      </c>
-      <c r="I17" s="7">
-        <v>132553</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1417</v>
+      </c>
+      <c r="N17" s="7">
+        <v>944268</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>366</v>
-      </c>
-      <c r="N17" s="7">
-        <v>265464</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>977</v>
       </c>
       <c r="D18" s="7">
-        <v>197175</v>
+        <v>652765</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2147,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>256</v>
+        <v>1046</v>
       </c>
       <c r="I18" s="7">
-        <v>196098</v>
+        <v>695437</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2162,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>546</v>
+        <v>2023</v>
       </c>
       <c r="N18" s="7">
-        <v>393274</v>
+        <v>1348202</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2325,171 +2178,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>300</v>
-      </c>
-      <c r="D19" s="7">
-        <v>198834</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>306</v>
-      </c>
-      <c r="I19" s="7">
-        <v>205100</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>606</v>
-      </c>
-      <c r="N19" s="7">
-        <v>403934</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>746</v>
-      </c>
-      <c r="D20" s="7">
-        <v>496603</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>671</v>
-      </c>
-      <c r="I20" s="7">
-        <v>447665</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1417</v>
-      </c>
-      <c r="N20" s="7">
-        <v>944268</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1046</v>
-      </c>
-      <c r="D21" s="7">
-        <v>695437</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>977</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652765</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2023</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1348202</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2502,8 +2199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A633006E-3221-4E7D-B12B-60C887C2B0E2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70624AAF-B7D1-4DFA-9A33-44963D1AA222}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2519,7 +2216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2620,49 +2317,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>9354</v>
+        <v>43259</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="I4" s="7">
-        <v>5111</v>
+        <v>42754</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="N4" s="7">
-        <v>14464</v>
+        <v>86013</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,49 +2368,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7">
-        <v>16101</v>
+        <v>92468</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="I5" s="7">
-        <v>17262</v>
+        <v>105565</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="M5" s="7">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="N5" s="7">
-        <v>33364</v>
+        <v>198033</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,10 +2419,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>135727</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2737,10 +2434,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>148319</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2752,10 +2449,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>387</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>284046</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2775,49 +2472,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>33400</v>
+        <v>53043</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>38149</v>
+        <v>49103</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="N7" s="7">
-        <v>71549</v>
+        <v>102146</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,49 +2523,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="D8" s="7">
-        <v>89464</v>
+        <v>146910</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="I8" s="7">
-        <v>75205</v>
+        <v>169031</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>233</v>
+        <v>472</v>
       </c>
       <c r="N8" s="7">
-        <v>164669</v>
+        <v>315941</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,10 +2574,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>175</v>
+        <v>309</v>
       </c>
       <c r="D9" s="7">
-        <v>122864</v>
+        <v>199953</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2892,10 +2589,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="I9" s="7">
-        <v>113354</v>
+        <v>218134</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2907,10 +2604,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>333</v>
+        <v>625</v>
       </c>
       <c r="N9" s="7">
-        <v>236218</v>
+        <v>418087</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2930,49 +2627,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>49103</v>
+        <v>39674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>53043</v>
+        <v>37281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>102146</v>
+        <v>76955</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2678,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>169031</v>
+        <v>111029</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="I11" s="7">
-        <v>146910</v>
+        <v>124648</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="N11" s="7">
-        <v>315941</v>
+        <v>235676</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>218134</v>
+        <v>150703</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2744,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c r="I12" s="7">
-        <v>199953</v>
+        <v>161929</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2759,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>625</v>
+        <v>485</v>
       </c>
       <c r="N12" s="7">
-        <v>418087</v>
+        <v>312631</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2782,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>37281</v>
+        <v>51934</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>39674</v>
+        <v>45346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="N13" s="7">
-        <v>76955</v>
+        <v>97280</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2833,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>124648</v>
+        <v>156884</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
+        <v>220</v>
+      </c>
+      <c r="I14" s="7">
+        <v>159661</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M14" s="7">
+        <v>426</v>
+      </c>
+      <c r="N14" s="7">
+        <v>316546</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="I14" s="7">
-        <v>111029</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M14" s="7">
-        <v>370</v>
-      </c>
-      <c r="N14" s="7">
-        <v>235676</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2884,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="D15" s="7">
-        <v>161929</v>
+        <v>208818</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2899,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="I15" s="7">
-        <v>150703</v>
+        <v>205007</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2914,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="N15" s="7">
-        <v>312631</v>
+        <v>413826</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3234,55 +2931,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="D16" s="7">
-        <v>45346</v>
+        <v>187911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="I16" s="7">
-        <v>51934</v>
+        <v>174484</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>125</v>
+        <v>509</v>
       </c>
       <c r="N16" s="7">
-        <v>97280</v>
+        <v>362394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2988,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>220</v>
+        <v>732</v>
       </c>
       <c r="D17" s="7">
-        <v>159661</v>
+        <v>507290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>206</v>
+        <v>807</v>
       </c>
       <c r="I17" s="7">
-        <v>156884</v>
+        <v>558905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="M17" s="7">
-        <v>426</v>
+        <v>1539</v>
       </c>
       <c r="N17" s="7">
-        <v>316546</v>
+        <v>1066197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +3039,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>278</v>
+        <v>1001</v>
       </c>
       <c r="D18" s="7">
-        <v>205007</v>
+        <v>695201</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3357,10 +3054,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>273</v>
+        <v>1047</v>
       </c>
       <c r="I18" s="7">
-        <v>208818</v>
+        <v>733389</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3069,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>551</v>
+        <v>2048</v>
       </c>
       <c r="N18" s="7">
-        <v>413826</v>
+        <v>1428591</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3388,171 +3085,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>240</v>
-      </c>
-      <c r="D19" s="7">
-        <v>174484</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>269</v>
-      </c>
-      <c r="I19" s="7">
-        <v>187911</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>509</v>
-      </c>
-      <c r="N19" s="7">
-        <v>362394</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>807</v>
-      </c>
-      <c r="D20" s="7">
-        <v>558905</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>732</v>
-      </c>
-      <c r="I20" s="7">
-        <v>507290</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1539</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1066197</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1047</v>
-      </c>
-      <c r="D21" s="7">
-        <v>733389</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1001</v>
-      </c>
-      <c r="I21" s="7">
-        <v>695201</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2048</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1428591</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3565,8 +3106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB4C2C7-A9C3-4352-A041-01587B0D9A22}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C137372-2B98-4D79-912C-805A54A488D1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3582,7 +3123,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,49 +3224,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7">
-        <v>13992</v>
+        <v>48988</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>9082</v>
+        <v>53628</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="N4" s="7">
-        <v>23074</v>
+        <v>102617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,49 +3275,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
-        <v>11582</v>
+        <v>81679</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="I5" s="7">
-        <v>12401</v>
+        <v>91331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="N5" s="7">
-        <v>23983</v>
+        <v>173009</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,10 +3326,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>130667</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3800,10 +3341,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="I6" s="7">
-        <v>21483</v>
+        <v>144959</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3815,10 +3356,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>53</v>
+        <v>374</v>
       </c>
       <c r="N6" s="7">
-        <v>47057</v>
+        <v>275626</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3838,49 +3379,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D7" s="7">
-        <v>39636</v>
+        <v>61752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="I7" s="7">
-        <v>39907</v>
+        <v>69846</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="N7" s="7">
-        <v>79542</v>
+        <v>131598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,49 +3430,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="D8" s="7">
-        <v>79749</v>
+        <v>140741</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
-        <v>101</v>
+        <v>224</v>
       </c>
       <c r="I8" s="7">
-        <v>69277</v>
+        <v>149899</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>209</v>
+        <v>450</v>
       </c>
       <c r="N8" s="7">
-        <v>149027</v>
+        <v>290640</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>161</v>
+        <v>326</v>
       </c>
       <c r="D9" s="7">
-        <v>119385</v>
+        <v>202493</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +3496,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="I9" s="7">
-        <v>109184</v>
+        <v>219745</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3970,10 +3511,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>321</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>228569</v>
+        <v>422238</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3993,49 +3534,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
-        <v>69846</v>
+        <v>42929</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7">
-        <v>61752</v>
+        <v>45927</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="N10" s="7">
-        <v>131598</v>
+        <v>88855</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3585,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="D11" s="7">
-        <v>149899</v>
+        <v>109526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="I11" s="7">
-        <v>140741</v>
+        <v>116871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>450</v>
+        <v>357</v>
       </c>
       <c r="N11" s="7">
-        <v>290640</v>
+        <v>226397</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="D12" s="7">
-        <v>219745</v>
+        <v>152455</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3651,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>326</v>
+        <v>242</v>
       </c>
       <c r="I12" s="7">
-        <v>202493</v>
+        <v>162798</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3666,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>651</v>
+        <v>495</v>
       </c>
       <c r="N12" s="7">
-        <v>422238</v>
+        <v>315252</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3689,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>45927</v>
+        <v>46112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>42929</v>
+        <v>51353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N13" s="7">
-        <v>88855</v>
+        <v>97465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3740,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>176</v>
+        <v>211</v>
       </c>
       <c r="D14" s="7">
-        <v>116871</v>
+        <v>154612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7">
-        <v>109526</v>
+        <v>148290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="N14" s="7">
-        <v>226397</v>
+        <v>302902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3791,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="D15" s="7">
-        <v>162798</v>
+        <v>200724</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3806,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>152455</v>
+        <v>199643</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3821,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="N15" s="7">
-        <v>315252</v>
+        <v>400367</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4297,55 +3838,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="D16" s="7">
-        <v>51353</v>
+        <v>199781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>61</v>
+        <v>308</v>
       </c>
       <c r="I16" s="7">
-        <v>46112</v>
+        <v>220754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>132</v>
+        <v>609</v>
       </c>
       <c r="N16" s="7">
-        <v>97465</v>
+        <v>420535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3895,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>210</v>
+        <v>733</v>
       </c>
       <c r="D17" s="7">
-        <v>148290</v>
+        <v>486558</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>211</v>
+        <v>731</v>
       </c>
       <c r="I17" s="7">
-        <v>154612</v>
+        <v>506391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
-        <v>421</v>
+        <v>1464</v>
       </c>
       <c r="N17" s="7">
-        <v>302902</v>
+        <v>992949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3946,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1034</v>
       </c>
       <c r="D18" s="7">
-        <v>199643</v>
+        <v>686339</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3961,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>272</v>
+        <v>1039</v>
       </c>
       <c r="I18" s="7">
-        <v>200724</v>
+        <v>727145</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3976,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>553</v>
+        <v>2073</v>
       </c>
       <c r="N18" s="7">
-        <v>400367</v>
+        <v>1413484</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4451,171 +3992,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>308</v>
-      </c>
-      <c r="D19" s="7">
-        <v>220754</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H19" s="7">
-        <v>301</v>
-      </c>
-      <c r="I19" s="7">
-        <v>199781</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M19" s="7">
-        <v>609</v>
-      </c>
-      <c r="N19" s="7">
-        <v>420535</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>731</v>
-      </c>
-      <c r="D20" s="7">
-        <v>506391</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="7">
-        <v>733</v>
-      </c>
-      <c r="I20" s="7">
-        <v>486558</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1464</v>
-      </c>
-      <c r="N20" s="7">
-        <v>992949</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1039</v>
-      </c>
-      <c r="D21" s="7">
-        <v>727145</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1034</v>
-      </c>
-      <c r="I21" s="7">
-        <v>686339</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2073</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1413484</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
